--- a/datos/centros.xlsx
+++ b/datos/centros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manug\OneDrive - Universidad Católica de Chile\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Times\Desktop\ICS1113-G40-Gurobi\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8719F54-7C10-46CA-ABEB-185E8A58A764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B969443D-EAA4-4831-A26A-45C197D5586D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{D5AFB4D9-A436-4B9F-8A95-3E6868D31B7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D5AFB4D9-A436-4B9F-8A95-3E6868D31B7A}"/>
   </bookViews>
   <sheets>
     <sheet name="centros acopio" sheetId="1" r:id="rId1"/>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -63,9 +61,6 @@
     <t>La Serena</t>
   </si>
   <si>
-    <t>Concepción</t>
-  </si>
-  <si>
     <t>Temuco</t>
   </si>
   <si>
@@ -84,9 +79,6 @@
     <t>Capacidad</t>
   </si>
   <si>
-    <t>Capacidad de personal médico</t>
-  </si>
-  <si>
     <t>SAPU Placilla</t>
   </si>
   <si>
@@ -109,13 +101,19 @@
   </si>
   <si>
     <t>Hospital Del Salvador</t>
+  </si>
+  <si>
+    <t>Concepcion</t>
+  </si>
+  <si>
+    <t>Capacidad de personal medico</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -625,12 +623,12 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="40.200000000000003" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -641,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" ht="14.4" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -652,7 +650,7 @@
         <v>19620</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="14.4" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -663,7 +661,7 @@
         <v>490500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="14.4" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -674,7 +672,7 @@
         <v>19620</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="14.4" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -685,7 +683,7 @@
         <v>13080</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" ht="14.4" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -696,9 +694,9 @@
         <v>13080</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="14.4" thickBot="1">
       <c r="A7" s="4" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5">
         <v>0.02</v>
@@ -707,9 +705,9 @@
         <v>13080</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="14.4" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="5">
         <v>0.03</v>
@@ -718,9 +716,9 @@
         <v>19620</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" ht="14.4" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="5">
         <v>0.03</v>
@@ -729,9 +727,9 @@
         <v>19620</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" ht="14.4" thickBot="1">
       <c r="A10" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B10" s="5">
         <v>0.04</v>
@@ -740,9 +738,9 @@
         <v>26160</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="14.4" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="5">
         <v>0.03</v>
@@ -751,7 +749,7 @@
         <v>19620</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" ht="14.4" thickBot="1">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>1</v>
@@ -770,25 +768,25 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="C1" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A2" s="10" t="s">
         <v>14</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>16</v>
       </c>
       <c r="B2" s="1">
         <v>630</v>
@@ -797,9 +795,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" ht="27" thickBot="1">
       <c r="A3" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B3" s="1">
         <v>630</v>
@@ -808,9 +806,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" ht="53.4" thickBot="1">
       <c r="A4" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B4" s="11">
         <v>1260</v>
@@ -819,9 +817,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A5" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B5" s="12">
         <v>1260</v>
@@ -830,9 +828,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" ht="27" thickBot="1">
       <c r="A6" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B6" s="1">
         <v>630</v>
@@ -841,9 +839,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:6" ht="27" thickBot="1">
       <c r="A7" s="10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1">
         <v>630</v>
@@ -852,9 +850,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" ht="40.200000000000003" thickBot="1">
       <c r="A8" s="10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B8" s="1">
         <v>630</v>
@@ -863,9 +861,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" ht="27" thickBot="1">
       <c r="A9" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="12">
         <v>1260</v>
@@ -874,7 +872,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6">
       <c r="F12" s="13"/>
     </row>
   </sheetData>

--- a/datos/centros.xlsx
+++ b/datos/centros.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Times\Desktop\ICS1113-G40-Gurobi\datos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\times\Desktop\Optimización - 1113\ICS1113-G40-Gurobi\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B969443D-EAA4-4831-A26A-45C197D5586D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4845B617-9E6E-452E-92DE-26B66AF62B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{D5AFB4D9-A436-4B9F-8A95-3E6868D31B7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{D5AFB4D9-A436-4B9F-8A95-3E6868D31B7A}"/>
   </bookViews>
   <sheets>
     <sheet name="centros acopio" sheetId="1" r:id="rId1"/>
@@ -85,9 +85,6 @@
     <t>SAPU Reina Isabel II</t>
   </si>
   <si>
-    <t>Hospital Dr Eduardo Pereira Ramírez</t>
-  </si>
-  <si>
     <t>Hospital Carlos Van Buren</t>
   </si>
   <si>
@@ -107,13 +104,16 @@
   </si>
   <si>
     <t>Capacidad de personal medico</t>
+  </si>
+  <si>
+    <t>Hospital Dr Eduardo Pereira Ramirez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -626,9 +626,9 @@
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.200000000000003" thickBot="1">
+    <row r="1" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -639,7 +639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="14.4" thickBot="1">
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -650,7 +650,7 @@
         <v>19620</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="14.4" thickBot="1">
+    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -661,7 +661,7 @@
         <v>490500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="14.4" thickBot="1">
+    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -672,7 +672,7 @@
         <v>19620</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="14.4" thickBot="1">
+    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -683,7 +683,7 @@
         <v>13080</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="14.4" thickBot="1">
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -694,9 +694,9 @@
         <v>13080</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="14.4" thickBot="1">
+    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5">
         <v>0.02</v>
@@ -705,7 +705,7 @@
         <v>13080</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="14.4" thickBot="1">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
         <v>8</v>
       </c>
@@ -716,7 +716,7 @@
         <v>19620</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="14.4" thickBot="1">
+    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
         <v>9</v>
       </c>
@@ -727,7 +727,7 @@
         <v>19620</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="14.4" thickBot="1">
+    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>10</v>
       </c>
@@ -738,7 +738,7 @@
         <v>26160</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="14.4" thickBot="1">
+    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
@@ -749,7 +749,7 @@
         <v>19620</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="14.4" thickBot="1">
+    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>1</v>
@@ -768,12 +768,12 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.200000000000003" thickBot="1">
+    <row r="1" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="8" t="s">
         <v>12</v>
       </c>
@@ -781,10 +781,10 @@
         <v>13</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="14.4" thickBot="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>14</v>
       </c>
@@ -795,7 +795,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="27" thickBot="1">
+    <row r="3" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>15</v>
       </c>
@@ -806,9 +806,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="53.4" thickBot="1">
+    <row r="4" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="B4" s="11">
         <v>1260</v>
@@ -817,9 +817,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="40.200000000000003" thickBot="1">
+    <row r="5" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="12">
         <v>1260</v>
@@ -828,9 +828,9 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="27" thickBot="1">
+    <row r="6" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>630</v>
@@ -839,9 +839,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="27" thickBot="1">
+    <row r="7" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>630</v>
@@ -850,9 +850,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="40.200000000000003" thickBot="1">
+    <row r="8" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>630</v>
@@ -861,9 +861,9 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="27" thickBot="1">
+    <row r="9" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="12">
         <v>1260</v>
@@ -872,7 +872,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="F12" s="13"/>
     </row>
   </sheetData>

--- a/datos/centros.xlsx
+++ b/datos/centros.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28318"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\times\Desktop\Optimización - 1113\ICS1113-G40-Gurobi\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4845B617-9E6E-452E-92DE-26B66AF62B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{4845B617-9E6E-452E-92DE-26B66AF62B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{577A4CAE-97E3-4B57-9DF8-8E0D5E2C29B1}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{D5AFB4D9-A436-4B9F-8A95-3E6868D31B7A}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{D5AFB4D9-A436-4B9F-8A95-3E6868D31B7A}"/>
   </bookViews>
   <sheets>
     <sheet name="centros acopio" sheetId="1" r:id="rId1"/>
     <sheet name="centros medicos" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,6 +28,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>Ciudad (centros de acopio)</t>
   </si>
@@ -61,6 +63,9 @@
     <t>La Serena</t>
   </si>
   <si>
+    <t>Concepcion</t>
+  </si>
+  <si>
     <t>Temuco</t>
   </si>
   <si>
@@ -79,6 +84,9 @@
     <t>Capacidad</t>
   </si>
   <si>
+    <t>Capacidad de personal medico</t>
+  </si>
+  <si>
     <t>SAPU Placilla</t>
   </si>
   <si>
@@ -86,34 +94,13 @@
   </si>
   <si>
     <t>Hospital Carlos Van Buren</t>
-  </si>
-  <si>
-    <t>SAPU Marcelo Mena</t>
-  </si>
-  <si>
-    <t>SAPU Placeres</t>
-  </si>
-  <si>
-    <t>SAPU Quebrada Verde</t>
-  </si>
-  <si>
-    <t>Hospital Del Salvador</t>
-  </si>
-  <si>
-    <t>Concepcion</t>
-  </si>
-  <si>
-    <t>Capacidad de personal medico</t>
-  </si>
-  <si>
-    <t>Hospital Dr Eduardo Pereira Ramirez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,12 +124,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF202124"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -247,7 +228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -282,10 +263,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,15 +598,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0E72BE5-019F-408B-91D5-CA4A750C1616}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:L15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:3" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" ht="40.9" thickBot="1">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -639,7 +617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="15" thickBot="1">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -650,7 +628,7 @@
         <v>19620</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" ht="15" thickBot="1">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -661,7 +639,7 @@
         <v>490500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" ht="15" thickBot="1">
       <c r="A4" s="4" t="s">
         <v>5</v>
       </c>
@@ -672,7 +650,7 @@
         <v>19620</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" ht="15" thickBot="1">
       <c r="A5" s="4" t="s">
         <v>6</v>
       </c>
@@ -683,7 +661,7 @@
         <v>13080</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" ht="15" thickBot="1">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -694,9 +672,9 @@
         <v>13080</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" ht="15" thickBot="1">
       <c r="A7" s="4" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="B7" s="5">
         <v>0.02</v>
@@ -705,9 +683,9 @@
         <v>13080</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" ht="15" thickBot="1">
       <c r="A8" s="4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B8" s="5">
         <v>0.03</v>
@@ -716,9 +694,9 @@
         <v>19620</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" ht="15" thickBot="1">
       <c r="A9" s="4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B9" s="5">
         <v>0.03</v>
@@ -727,9 +705,9 @@
         <v>19620</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" ht="15" thickBot="1">
       <c r="A10" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B10" s="5">
         <v>0.04</v>
@@ -738,9 +716,9 @@
         <v>26160</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" ht="15" thickBot="1">
       <c r="A11" s="4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B11" s="5">
         <v>0.03</v>
@@ -749,7 +727,7 @@
         <v>19620</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" ht="15" thickBot="1">
       <c r="A12" s="6"/>
       <c r="B12" s="5">
         <v>1</v>
@@ -757,6 +735,9 @@
       <c r="C12" s="7">
         <v>654000</v>
       </c>
+    </row>
+    <row r="15" spans="1:12" ht="15">
+      <c r="L15" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -765,115 +746,92 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{614D169B-28EE-4541-947C-C548DC701C59}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:19" ht="40.5" customHeight="1" thickBot="1">
       <c r="A1" s="8" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="23.25">
       <c r="A2" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="1">
-        <v>630</v>
+        <v>80</v>
       </c>
       <c r="C2" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="S2" s="12"/>
+    </row>
+    <row r="3" spans="1:19" ht="23.25">
       <c r="A3" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B3" s="1">
-        <v>630</v>
+        <v>80</v>
       </c>
       <c r="C3" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="54" thickBot="1" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="35.25">
       <c r="A4" s="10" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B4" s="11">
-        <v>1260</v>
+        <v>320</v>
       </c>
       <c r="C4" s="1">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="12">
-        <v>1260</v>
-      </c>
-      <c r="C5" s="1">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1">
-        <v>630</v>
-      </c>
-      <c r="C6" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="1">
-        <v>630</v>
-      </c>
-      <c r="C7" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="40.799999999999997" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="1">
-        <v>630</v>
-      </c>
-      <c r="C8" s="1">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="27.6" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="12">
-        <v>1260</v>
-      </c>
-      <c r="C9" s="1">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="F12" s="13"/>
+        <v>55</v>
+      </c>
+      <c r="G4" s="12"/>
+      <c r="N4" s="12"/>
+    </row>
+    <row r="5" spans="1:19" ht="15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="1"/>
+      <c r="H5" s="12"/>
+    </row>
+    <row r="6" spans="1:19" ht="15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:19" ht="15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:19" ht="15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:19" ht="15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="11" spans="1:19" ht="15">
+      <c r="G11" s="12"/>
+    </row>
+    <row r="12" spans="1:19">
+      <c r="F12" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/datos/centros.xlsx
+++ b/datos/centros.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\times\Desktop\Optimización - 1113\ICS1113-G40-Gurobi\datos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="78" documentId="13_ncr:1_{4845B617-9E6E-452E-92DE-26B66AF62B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{577A4CAE-97E3-4B57-9DF8-8E0D5E2C29B1}"/>
+  <xr:revisionPtr revIDLastSave="79" documentId="13_ncr:1_{4845B617-9E6E-452E-92DE-26B66AF62B21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EBFBC270-E116-4BCC-A7AD-4705371DFA62}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" firstSheet="1" activeTab="1" xr2:uid="{D5AFB4D9-A436-4B9F-8A95-3E6868D31B7A}"/>
   </bookViews>
@@ -749,7 +749,7 @@
   <dimension ref="A1:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="14.45"/>
@@ -806,6 +806,7 @@
       <c r="B5" s="11"/>
       <c r="C5" s="1"/>
       <c r="H5" s="12"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:19" ht="15">
       <c r="A6" s="10"/>
